--- a/data/evaluation/evaluation_South_Summer_Carrots.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Carrots.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3132.197160221261</v>
+        <v>3146.239322227813</v>
       </c>
       <c r="C4" t="n">
-        <v>22682102.16607327</v>
+        <v>22918529.51122607</v>
       </c>
       <c r="D4" t="n">
-        <v>4762.573061494519</v>
+        <v>4787.330102596443</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1662192068146224</v>
+        <v>-0.1783753160197825</v>
       </c>
     </row>
     <row r="5">
